--- a/excel_with_subclasses/basic/city.xlsx
+++ b/excel_with_subclasses/basic/city.xlsx
@@ -388,7 +388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,80 +416,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q104157</t>
+          <t>Q1029013</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>города Филиппин</t>
+          <t>Megaregions of the United States</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q159313_городская агломерация</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q1050126</t>
+          <t>Q104157</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>State-level new areas of the People's Republic of China</t>
+          <t>города Филиппин</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Q250811_город субпровинциального значения</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q1066538</t>
+          <t>Q10499251</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>национальный урбанистический центр</t>
+          <t>vacation area</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q702492_городская территория</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q1093829</t>
+          <t>Q1050126</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>большой город в США</t>
+          <t>State-level new areas of the People's Republic of China</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q250811_город субпровинциального значения</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q1094397</t>
+          <t>Q1066538</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>автономный город</t>
+          <t>национальный урбанистический центр</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -501,63 +501,63 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q1131233</t>
+          <t>Q1070990</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Моногород</t>
+          <t>городской уезд в Китае</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q15253706_город</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q1137833</t>
+          <t>Q1093829</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Центральные города Японии</t>
+          <t>большой город в США</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Q494721_город Японии</t>
+          <t>Q515_город,Q15253706_город</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q1145012</t>
+          <t>Q1094397</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Особый город Японии</t>
+          <t>автономный город</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Q494721_город Японии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q1187811</t>
+          <t>Q1131233</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>университетский город</t>
+          <t>Моногород</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -569,131 +569,131 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q11912920</t>
+          <t>Q1137833</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>casal</t>
+          <t>Центральные города Японии</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q11939023_ядро населения</t>
+          <t>Q494721_город Японии</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q11939023</t>
+          <t>Q1145012</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ядро населения</t>
+          <t>Особый город Японии</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q494721_город Японии</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q11940652</t>
+          <t>Q1187811</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Valencian pedania</t>
+          <t>университетский город</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q15725677_педания</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q12015578</t>
+          <t>Q11881845</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>городской муниципалитет Швеции или Финляндии</t>
+          <t>город</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q12039044</t>
+          <t>Q11912920</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>городская волость Тайваня</t>
+          <t>casal</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q2367508_township of Taiwan</t>
+          <t>Q11939023_ядро населения</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q12039539</t>
+          <t>Q11939023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>сельская волость Тайваня</t>
+          <t>ядро населения</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q2367508_township of Taiwan</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q12102963</t>
+          <t>Q11940652</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>city specifically designated in the state plan</t>
+          <t>Valencian pedania</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q15725677_педания</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q12131624</t>
+          <t>Q12015578</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>город на Украине</t>
+          <t>городской муниципалитет Швеции или Финляндии</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -705,63 +705,63 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q12131640</t>
+          <t>Q12039044</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>город районного значения</t>
+          <t>городская волость Тайваня</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q200209_города Украины</t>
+          <t>Q2367508_township of Taiwan</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q12159392</t>
+          <t>Q12039539</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Seven Cities of Delhi</t>
+          <t>сельская волость Тайваня</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q2367508_township of Taiwan</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q1231558</t>
+          <t>Q12057402</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Умный город</t>
+          <t>holy city of Islam</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q692581_Священные города</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q1256805</t>
+          <t>Q12102963</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Drei-Flüsse-Stadt</t>
+          <t>city specifically designated in the state plan</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -773,46 +773,46 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q1266029</t>
+          <t>Q12131624</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>edge city</t>
+          <t>город на Украине</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q515_город,Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q1266818</t>
+          <t>Q12131640</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>независимый город США</t>
+          <t>город районного значения</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Q1093829_большой город в США,Q15092400_независимый город</t>
+          <t>Q200209_города Украины</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q13028920</t>
+          <t>Q12159392</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Окольный город</t>
+          <t>Seven Cities of Delhi</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -824,63 +824,63 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q13218357</t>
+          <t>Q12304704</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>city of California</t>
+          <t>urban area in Denmark</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Q1093829_большой город в США</t>
+          <t>Q6566301_Населённые пункты Швеции</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q13218382</t>
+          <t>Q1231558</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>город хартии и отдельный округ</t>
+          <t>Умный город</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Q3301053_объединение города и округа,Q13218391_город хартии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q13218391</t>
+          <t>Q1256805</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>город хартии</t>
+          <t>Drei-Flüsse-Stadt</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Q604886_Город хартии,Q13218357_city of California</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q13218690</t>
+          <t>Q1266029</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>город в Венгрии</t>
+          <t>edge city</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -892,114 +892,114 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q13416557</t>
+          <t>Q1266818</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Royal city</t>
+          <t>независимый город США</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q1093829_большой город в США,Q15092400_независимый город</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q13455645</t>
+          <t>Q12813115</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>административный город Республики Ирландия</t>
+          <t>населённый пункт Швеции</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q702492_городская территория,Q6566301_Населённые пункты Швеции</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q13526752</t>
+          <t>Q13028920</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>lugar</t>
+          <t>Окольный город</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Q11939023_ядро населения</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q13539802</t>
+          <t>Q13218357</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>городская община</t>
+          <t>city of California</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q1093829_большой город в США</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q1375749</t>
+          <t>Q13218382</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>европаштадт</t>
+          <t>город хартии и отдельный округ</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q3301053_объединение города и округа,Q13218391_город хартии</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Q1422929</t>
+          <t>Q13218391</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>primate city</t>
+          <t>город хартии</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q604886_Город хартии,Q13218357_city of California</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Q15063600</t>
+          <t>Q13218690</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>home rule city of Michigan</t>
+          <t>город в Венгрии</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1011,29 +1011,29 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Q15063611</t>
+          <t>Q13416557</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>город штата Нью-Йорк</t>
+          <t>Royal city</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Q1093829_большой город в США</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Q15092400</t>
+          <t>Q13455645</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>независимый город</t>
+          <t>административный город Республики Ирландия</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1045,29 +1045,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Q15127838</t>
+          <t>Q13526752</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>город республиканского подчинения</t>
+          <t>lugar</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q11939023_ядро населения</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q15141632</t>
+          <t>Q13539802</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>тхетсабаннакхон</t>
+          <t>городская община</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1079,148 +1079,148 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Q15221256</t>
+          <t>Q1375749</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>город Висконсина</t>
+          <t>европаштадт</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Q1093829_большой город в США</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q15221304</t>
+          <t>Q1419251</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>город первого класса</t>
+          <t>Коридор Квебек — Уинсор</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Q15221256_город Висконсина</t>
+          <t>Q702492_городская территория</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q15221310</t>
+          <t>Q1422929</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>город второго класса</t>
+          <t>primate city</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Q15221256_город Висконсина</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Q15221370</t>
+          <t>Q1479822</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>город третьего класса</t>
+          <t>городское поселение</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Q15221256_город Висконсина</t>
+          <t>Q702492_городская территория</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Q15221373</t>
+          <t>Q14839548</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>город четвёртого класса</t>
+          <t>смоорт</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Q15221256_город Висконсина</t>
+          <t>Q702492_городская территория</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Q15259749</t>
+          <t>Q15063600</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Градообразующее предприятие</t>
+          <t>home rule city of Michigan</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Q1131233_Моногород</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Q15260353</t>
+          <t>Q15063611</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>host city</t>
+          <t>город штата Нью-Йорк</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q1093829_большой город в США</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Q15273785</t>
+          <t>Q15092344</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>коммуна Бельгии со статусом города</t>
+          <t>городской район в Норвегии</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q6566301_Населённые пункты Швеции</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Q1547289</t>
+          <t>Q15092400</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>лютерштадт</t>
+          <t>независимый город</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1232,165 +1232,165 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Q1548518</t>
+          <t>Q15127838</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>большой окружной город</t>
+          <t>город республиканского подчинения</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Q42744322_городская община Германии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Q1548525</t>
+          <t>Q15141632</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>большой независимый город Нижней Саксонии</t>
+          <t>тхетсабаннакхон</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Q42744322_городская община Германии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Q15584664</t>
+          <t>Q15221256</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>город под муниципальной юрисдикцией Латвии</t>
+          <t>город Висконсина</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q1093829_большой город в США</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Q15647906</t>
+          <t>Q15221304</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>город Португалии</t>
+          <t>город первого класса</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q15221256_город Висконсина</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Q15725677</t>
+          <t>Q15221310</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>педания</t>
+          <t>город второго класса</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Q11939023_ядро населения</t>
+          <t>Q15221256_город Висконсина</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Q16181672</t>
+          <t>Q15221370</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>special autonomous city in South Korea</t>
+          <t>город третьего класса</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q15221256_город Висконсина</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Q16537979</t>
+          <t>Q15221373</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>castelliere</t>
+          <t>город четвёртого класса</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Q677678_укреплённый город</t>
+          <t>Q15221256_город Висконсина</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Q16557344</t>
+          <t>Q15253706</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>diseminado</t>
+          <t>город</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Q11912920_casal</t>
+          <t>Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Q1656724</t>
+          <t>Q15259749</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Идеальный город</t>
+          <t>Градообразующее предприятие</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q1131233_Моногород</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Q16825568</t>
+          <t>Q15260353</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Caravan city</t>
+          <t>host city</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1402,12 +1402,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Q16858213</t>
+          <t>Q15273785</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>город в Румынии</t>
+          <t>коммуна Бельгии со статусом города</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1419,114 +1419,114 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Q16933701</t>
+          <t>Q1530824</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Principal city</t>
+          <t>городской округ Южно-Африканской Республики</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q6024226_metropolitan municipality</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Q17352050</t>
+          <t>Q1547289</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>autonomous city of Spain</t>
+          <t>лютерштадт</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Q1094397_автономный город</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Q1749269</t>
+          <t>Q1548518</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>город, определённый указом правительства</t>
+          <t>большой окружной город</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Q494721_город Японии</t>
+          <t>Q42744322_городская община Германии</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Q17624511</t>
+          <t>Q1548525</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>caserío</t>
+          <t>большой независимый город Нижней Саксонии</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Q11912920_casal</t>
+          <t>Q42744322_городская община Германии</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Q18477590</t>
+          <t>Q1549591</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>list of Brazilian cities that have a second round of municipal elections</t>
+          <t>город с населением более 100 000 человек</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Q18702</t>
+          <t>Q15584664</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Royal free city</t>
+          <t>город под муниципальной юрисдикцией Латвии</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q515_город,Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Q200209</t>
+          <t>Q15647906</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>города Украины</t>
+          <t>город Португалии</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1538,97 +1538,97 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Q20541692</t>
+          <t>Q15715391</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>населённый пункт в Галисии</t>
+          <t>town inside a parish</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Q13526752_lugar</t>
+          <t>Q11881845_город</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Q208511</t>
+          <t>Q15725677</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>глобальный город</t>
+          <t>педания</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q11939023_ядро населения</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Q21010817</t>
+          <t>Q159313</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>город в Пенсильвании</t>
+          <t>городская агломерация</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Q1093829_большой город в США</t>
+          <t>Q702492_городская территория</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Q2138558</t>
+          <t>Q159438</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>regiopolis</t>
+          <t>город-герой</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Q21518270</t>
+          <t>Q15978299</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>столица штата либо островной территории США</t>
+          <t>муниципалитет со статусом города</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Q1093829_большой город в США</t>
+          <t>Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Q21550633</t>
+          <t>Q16181672</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>garden city</t>
+          <t>special autonomous city in South Korea</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1640,46 +1640,46 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Q21857891</t>
+          <t>Q16537979</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Swedish city</t>
+          <t>castelliere</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q677678_укреплённый город</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Q2235075</t>
+          <t>Q16557344</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>центральный город</t>
+          <t>diseminado</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q11912920_casal</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Q2264924</t>
+          <t>Q1656724</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>портовый город</t>
+          <t>Идеальный город</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1691,46 +1691,46 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Q22865</t>
+          <t>Q16724476</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>городской округ в Германии</t>
+          <t>город Белоруссии</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Q515_город,Q42744322_городская община Германии</t>
+          <t>Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Q2327515</t>
+          <t>Q16825568</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>город окружного подчинения в Баден-Вюртемберге</t>
+          <t>Caravan city</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Q22865_городской округ в Германии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Q23640644</t>
+          <t>Q16858213</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Levitical city</t>
+          <t>город в Румынии</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1742,12 +1742,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Q2367508</t>
+          <t>Q16933701</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>township of Taiwan</t>
+          <t>Principal city</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1759,131 +1759,131 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Q24700892</t>
+          <t>Q17352050</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>post town</t>
+          <t>autonomous city of Spain</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q1094397_автономный город</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Q250811</t>
+          <t>Q17457202</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>город субпровинциального значения</t>
+          <t>population centre</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q702492_городская территория</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Q25377665</t>
+          <t>Q17457437</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>gambling city</t>
+          <t>Census agglomeration</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q159313_городская агломерация</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Q25412763</t>
+          <t>Q1749269</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>город в Чили</t>
+          <t>город, определённый указом правительства</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q494721_город Японии</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Q257978</t>
+          <t>Q1750414</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>уставный город Чехии</t>
+          <t>Asty</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Q15092400_независимый город</t>
+          <t>Q702492_городская территория</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Q2616791</t>
+          <t>Q17624511</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>городская гмина</t>
+          <t>caserío</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q11912920_casal</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Q262882</t>
+          <t>Q18398645</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>уставный город Австрии</t>
+          <t>категория городов России</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Q515_город,Q13539802_городская община</t>
+          <t>Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Q27676416</t>
+          <t>Q18477590</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>город Квебека</t>
+          <t>list of Brazilian cities that have a second round of municipal elections</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1895,12 +1895,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Q2844893</t>
+          <t>Q18702</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>cidade</t>
+          <t>Royal free city</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1912,165 +1912,165 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Q28659128</t>
+          <t>Q187768</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>город КНДР</t>
+          <t>города России</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Q29045252</t>
+          <t>Q200209</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>город в Южной Корее</t>
+          <t>города Украины</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q515_город,Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Q29556224</t>
+          <t>Q20541692</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>город Кипра</t>
+          <t>населённый пункт в Галисии</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q13526752_lugar</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Q2974552</t>
+          <t>Q20724701</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>city in New Jersey</t>
+          <t>город в Армении</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Q1093829_большой город в США</t>
+          <t>Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Q2989421</t>
+          <t>Q20738855</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>местный совет в Испании</t>
+          <t>urban area with a population of 150-199</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Q11939023_ядро населения</t>
+          <t>Q702492_городская территория</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Q29946056</t>
+          <t>Q208511</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>сильно урбанизированный город</t>
+          <t>глобальный город</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Q104157_города Филиппин</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Q3249005</t>
+          <t>Q21010817</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>город провинциального подчинения во Вьетнаме</t>
+          <t>город в Пенсильвании</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q1093829_большой город в США</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Q3301053</t>
+          <t>Q2138558</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>объединение города и округа</t>
+          <t>regiopolis</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Q1093829_большой город в США</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Q34843301</t>
+          <t>Q21518270</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>столица жудеца Румынии</t>
+          <t>столица штата либо островной территории США</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q1093829_большой город в США</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Q34986717</t>
+          <t>Q21550633</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>city of Malaysia</t>
+          <t>garden city</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2082,29 +2082,29 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Q3559093</t>
+          <t>Q215712</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>sanctuary city</t>
+          <t>Остров тепла</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q702492_городская территория</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Q3559227</t>
+          <t>Q21857891</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>город Ирландии</t>
+          <t>Swedish city</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2116,29 +2116,29 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Q3678424</t>
+          <t>Q2215397</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>city with special status</t>
+          <t>city (англоязычная терминология)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Q42744322_городская община Германии</t>
+          <t>Q15253706_город</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Q37800986</t>
+          <t>Q2235075</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>город в Сербии</t>
+          <t>центральный город</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2150,12 +2150,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Q4189057</t>
+          <t>Q2264924</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Заштатный город</t>
+          <t>портовый город</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2167,46 +2167,46 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Q4249901</t>
+          <t>Q22865</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>specific city</t>
+          <t>городской округ в Германии</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Q29045252_город в Южной Корее</t>
+          <t>Q515_город,Q42744322_городская община Германии</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Q42744322</t>
+          <t>Q2327515</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>городская община Германии</t>
+          <t>город окружного подчинения в Баден-Вюртемберге</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Q515_город,Q13539802_городская община</t>
+          <t>Q22865_городской округ в Германии</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Q428986</t>
+          <t>Q23640644</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Linear city</t>
+          <t>Levitical city</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2218,12 +2218,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Q44551483</t>
+          <t>Q2367508</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>township of Taiwan</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2235,29 +2235,29 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Q448801</t>
+          <t>Q245260</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>крупный город района в Германии</t>
+          <t>конурбация</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Q42744322_городская община Германии</t>
+          <t>Q702492_городская территория</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Q474164</t>
+          <t>Q24700892</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Boomtown</t>
+          <t>post town</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2269,12 +2269,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Q4826725</t>
+          <t>Q250811</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>automotive city</t>
+          <t>город субпровинциального значения</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2286,12 +2286,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Q482810</t>
+          <t>Q25377665</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>special city</t>
+          <t>gambling city</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2303,12 +2303,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Q482821</t>
+          <t>Q25412763</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>город прямого подчинения Республики Корея</t>
+          <t>город в Чили</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2320,29 +2320,29 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Q4875694</t>
+          <t>Q257978</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Beach Cities</t>
+          <t>уставный город Чехии</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q15092400_независимый город,Q15978299_муниципалитет со статусом города</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Q4943467</t>
+          <t>Q2616791</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Boomburb</t>
+          <t>городская гмина</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2354,63 +2354,63 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Q494721</t>
+          <t>Q262882</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>город Японии</t>
+          <t>уставный город Австрии</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q515_город,Q13539802_городская община</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Q5107861</t>
+          <t>Q2716259</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Коммунальное движение</t>
+          <t>metropolitan municipality in Turkey</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q6024226_metropolitan municipality</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Q5123999</t>
+          <t>Q27517161</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>город областного значения Украины</t>
+          <t>курортный посёлок в России</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Q12131624_город на Украине</t>
+          <t>Q19507642_курортный посёлок</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Q5124027</t>
+          <t>Q27676416</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>city proper</t>
+          <t>город Квебека</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2422,29 +2422,29 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Q5124045</t>
+          <t>Q2827758</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>город со специальным статусом</t>
+          <t>Ai no shuku</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Q200209_города Украины</t>
+          <t>Q65274067_Q65274067</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Q537250</t>
+          <t>Q2844893</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>федеральный город</t>
+          <t>cidade</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2456,12 +2456,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Q54935504</t>
+          <t>Q28659128</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>город Швейцарии</t>
+          <t>город КНДР</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2473,29 +2473,29 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Q54935786</t>
+          <t>Q29045252</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>medium district town</t>
+          <t>город в Южной Корее</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Q42744322_городская община Германии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Q55440238</t>
+          <t>Q29556224</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>город в Альберте</t>
+          <t>город Кипра</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2507,12 +2507,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Q55612423</t>
+          <t>Q2974552</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>General Law City</t>
+          <t>city in New Jersey</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2524,63 +2524,63 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Q56557504</t>
+          <t>Q2989421</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>город Ирана</t>
+          <t>местный совет в Испании</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q11939023_ядро населения</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Q57318</t>
+          <t>Q29946056</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>имперский город</t>
+          <t>сильно урбанизированный город</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q104157_города Филиппин</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Q5770918</t>
+          <t>Q3199141</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>город Аргентины</t>
+          <t>кота</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Q58339717</t>
+          <t>Q3249005</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>город Индии</t>
+          <t>город провинциального подчинения во Вьетнаме</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2592,165 +2592,165 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Q60458065</t>
+          <t>Q3301053</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>город</t>
+          <t>объединение города и округа</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q1093829_большой город в США</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Q604886</t>
+          <t>Q3317612</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Город хартии</t>
+          <t>historic grouping</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Q1093829_большой город в США</t>
+          <t>Q66626342_urban ensemble</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Q61708053</t>
+          <t>Q34843301</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>independent city of Saxony-Anhalt</t>
+          <t>столица жудеца Румынии</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Q22865_городской округ в Германии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Q61708099</t>
+          <t>Q34986717</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>urban district in Saxony</t>
+          <t>city of Malaysia</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Q22865_городской округ в Германии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Q61747322</t>
+          <t>Q3559093</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>urban district of Thuringia</t>
+          <t>sanctuary city</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Q22865_городской округ в Германии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Q61793478</t>
+          <t>Q3559227</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>urban district of Brandenburg</t>
+          <t>город Ирландии</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Q22865_городской округ в Германии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Q61856863</t>
+          <t>Q3678424</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>urban district in Schleswig-Holstein</t>
+          <t>city with special status</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Q22865_городской округ в Германии</t>
+          <t>Q42744322_городская община Германии</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Q61980648</t>
+          <t>Q37800986</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>urban district of Hesse</t>
+          <t>город в Сербии</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Q22865_городской округ в Германии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Q63208468</t>
+          <t>Q4056979</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>город в Эквадоре</t>
+          <t>Агломерации России</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q159313_городская агломерация</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Q63208555</t>
+          <t>Q4189057</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>city in Gabon</t>
+          <t>Заштатный город</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2762,46 +2762,46 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Q63209072</t>
+          <t>Q4249901</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>city in Colombia</t>
+          <t>specific city</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q29045252_город в Южной Корее</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Q63440326</t>
+          <t>Q42744322</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>city of Oregon</t>
+          <t>городская община Германии</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Q1093829_большой город в США</t>
+          <t>Q515_город,Q13539802_городская община</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Q63441182</t>
+          <t>Q428986</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Sponge city</t>
+          <t>Linear city</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2813,80 +2813,80 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Q6350957</t>
+          <t>Q442799</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>district of Cartagena, Spain</t>
+          <t>предместье</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Q15725677_педания</t>
+          <t>Q702492_городская территория</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Q6373489</t>
+          <t>Q44551483</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Kartah</t>
+          <t>city</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Q23640644_Levitical city</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Q64911820</t>
+          <t>Q448801</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>populated area of the city of Alicante</t>
+          <t>крупный город района в Германии</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Q11939023_ядро населения</t>
+          <t>Q42744322_городская община Германии</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Q652360</t>
+          <t>Q471822</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Стабильный город</t>
+          <t>Мегалополис</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q702492_городская территория</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Q6609673</t>
+          <t>Q474164</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Список городов Британской Колумбии</t>
+          <t>Boomtown</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2898,12 +2898,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Q677678</t>
+          <t>Q4826725</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>укреплённый город</t>
+          <t>automotive city</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2915,29 +2915,29 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Q681277</t>
+          <t>Q482810</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>город с правами медье</t>
+          <t>special city</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Q13218690_город в Венгрии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Q707813</t>
+          <t>Q482821</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ганзейский город</t>
+          <t>город прямого подчинения Республики Корея</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2949,391 +2949,1479 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Q708418</t>
+          <t>Q4875694</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Ren'ai Township</t>
+          <t>Beach Cities</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Q12039539_сельская волость Тайваня</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Q708650</t>
+          <t>Q4943467</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Shuili Township</t>
+          <t>Boomburb</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Q12039539_сельская волость Тайваня</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Q713146</t>
+          <t>Q494721</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>город уездного подчинения</t>
+          <t>город Японии</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q515_город,Q15253706_город</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Q748149</t>
+          <t>Q50330360</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>городской округ в КНР</t>
+          <t>второй по величине город</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Q752596</t>
+          <t>Q5107861</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Cities of Refuge</t>
+          <t>Коммунальное движение</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Q23640644_Levitical city</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Q7574798</t>
+          <t>Q5123997</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>special city of North Korea</t>
+          <t>город регионального значения в субъектах РФ</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q18398645_категория городов России</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Q7574799</t>
+          <t>Q5123999</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>special city of South Korea</t>
+          <t>город областного значения Украины</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Q482810_special city</t>
+          <t>Q12131624_город на Украине</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Q779426</t>
+          <t>Q5124027</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>urban district of Hungary</t>
+          <t>city proper</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Q13218690_город в Венгрии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Q7819319</t>
+          <t>Q5124028</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>населённый пункт с расширенными полномочиями</t>
+          <t>City region</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q941150_city region</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Q810652</t>
+          <t>Q5124045</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Бастида</t>
+          <t>город со специальным статусом</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q200209_города Украины</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Q83020</t>
+          <t>Q515</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>город провинциального подчинения</t>
+          <t>город</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q702492_городская территория,Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Q8452914</t>
+          <t>Q51929311</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>district town</t>
+          <t>первый по величине город</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Q85631896</t>
+          <t>Q537250</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>urban district of Bavaria</t>
+          <t>федеральный город</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Q22865_городской округ в Германии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Q85632032</t>
+          <t>Q54935504</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>urban district of Rhineland-Palatinate</t>
+          <t>город Швейцарии</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Q22865_городской округ в Германии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Q85635301</t>
+          <t>Q54935786</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>urban district of Mecklenburg-Vorpommern</t>
+          <t>medium district town</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Q22865_городской округ в Германии</t>
+          <t>Q42744322_городская община Германии</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Q85635630</t>
+          <t>Q55440238</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>urban district of North Rhine-Westphalia</t>
+          <t>город в Альберте</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Q22865_городской округ в Германии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Q85635638</t>
+          <t>Q55612423</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>urban district of Bremen</t>
+          <t>General Law City</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Q22865_городской округ в Германии</t>
+          <t>Q1093829_большой город в США</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Q85635929</t>
+          <t>Q56557504</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>urban district of Lower Saxony</t>
+          <t>город Ирана</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Q22865_городской округ в Германии</t>
+          <t>Q515_город</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Q85636059</t>
+          <t>Q56557664</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>urban district of Berlin</t>
+          <t>şəhər</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Q22865_городской округ в Германии</t>
+          <t>Q7930989_город</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Q85636199</t>
+          <t>Q56575365</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>urban district of Lower Hamburg</t>
+          <t>Город краевого значения</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Q22865_городской округ в Германии</t>
+          <t>Q5123997_город регионального значения в субъектах РФ</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Q896881</t>
+          <t>Q56580032</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>средний город</t>
+          <t>город республиканского значения</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q5123997_город регионального значения в субъектах РФ</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Q909458</t>
+          <t>Q56580326</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>jōkamachi</t>
+          <t>город окружного значения</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Q515_город</t>
+          <t>Q5123997_город регионального значения в субъектах РФ</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
+          <t>Q56580425</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>город областного значения</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Q5123997_город регионального значения в субъектах РФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Q57318</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>имперский город</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Q5770918</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>город Аргентины</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Q58339717</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>город Индии</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Q587089</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>city with municipal rights</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Q15253706_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Q60458065</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>город</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Q604886</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Город хартии</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Q1093829_большой город в США</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Q61492541</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>urban area in Finland</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Q702492_городская территория,Q6566301_Населённые пункты Швеции</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Q61708053</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>independent city of Saxony-Anhalt</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Q22865_городской округ в Германии</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Q61708099</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>urban district in Saxony</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Q22865_городской округ в Германии</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Q61747322</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>urban district of Thuringia</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Q22865_городской округ в Германии</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Q61793478</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>urban district of Brandenburg</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Q22865_городской округ в Германии</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Q61856863</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>urban district in Schleswig-Holstein</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Q22865_городской округ в Германии</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Q61980648</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>urban district of Hesse</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Q22865_городской округ в Германии</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Q63208468</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>город в Эквадоре</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Q63208555</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>city in Gabon</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Q63209072</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>city in Colombia</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Q63440326</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>city of Oregon</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Q1093829_большой город в США</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Q63441182</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Sponge city</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Q6350957</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>district of Cartagena, Spain</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Q15725677_педания</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Q6373489</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Kartah</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Q23640644_Levitical city</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Q64911820</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>populated area of the city of Alicante</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Q11939023_ядро населения</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Q652360</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Стабильный город</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Q6566301</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Населённые пункты Швеции</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Q702492_городская территория</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Q6609673</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Список городов Британской Колумбии</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Q66626342</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>urban ensemble</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Q702492_городская территория</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Q67123843</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>город, разделённый границей</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Q902814_граничный город</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Q677678</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>укреплённый город</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Q681277</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>город с правами медье</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Q13218690_город в Венгрии</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Q692581</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Священные города</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Q7930989_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Q702492</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>городская территория</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Q7930989_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Q707813</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>ганзейский город</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Q708418</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Ren'ai Township</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Q12039539_сельская волость Тайваня</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Q708650</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Shuili Township</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Q12039539_сельская волость Тайваня</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Q713146</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>город уездного подчинения</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Q748149</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>городской округ в КНР</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Q752596</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Cities of Refuge</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Q23640644_Levitical city</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Q7574798</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>special city of North Korea</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Q7574799</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>special city of South Korea</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Q482810_special city</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Q779426</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>urban district of Hungary</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Q13218690_город в Венгрии</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Q7819319</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>населённый пункт с расширенными полномочиями</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Q7830079</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>город районного значения в субъектах РФ</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Q18398645_категория городов России</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Q79323854</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>город областного подчинения</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Q7930989_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Q79324274</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>город районного подчинения</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Q7930989_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Q810652</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Бастида</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Q83020</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>город провинциального подчинения</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Q8452914</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>district town</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Q85631896</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>urban district of Bavaria</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Q22865_городской округ в Германии</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Q85632032</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>urban district of Rhineland-Palatinate</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Q22865_городской округ в Германии</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Q85635301</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>urban district of Mecklenburg-Vorpommern</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Q22865_городской округ в Германии</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Q85635630</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>urban district of North Rhine-Westphalia</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Q22865_городской округ в Германии</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Q85635638</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>urban district of Bremen</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Q22865_городской округ в Германии</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Q85635929</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>urban district of Lower Saxony</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Q22865_городской округ в Германии</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Q85636059</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>urban district of Berlin</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Q22865_городской округ в Германии</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Q85636199</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>urban district of Lower Hamburg</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Q22865_городской округ в Германии</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Q89487741</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>город в Болгарии</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Q7930989_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Q896881</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>средний город</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Q902814</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>граничный город</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Q7930989_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Q909458</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>jōkamachi</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Q91730648</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>посёлок городского типа в Республике Беларусь</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Q702492_городская территория</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Q91733160</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>городской посёлок</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Q91730648_посёлок городского типа в Республике Беларусь</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Q91733598</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>курортный посёлок</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Q91730648_посёлок городского типа в Республике Беларусь</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Q91733790</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>рабочий посёлок</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Q91730648_посёлок городского типа в Республике Беларусь</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
           <t>Q925381</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>город на правах повята</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Q515_город</t>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Q515_город</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Q941150</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>city region</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Q159313_городская агломерация</t>
         </is>
       </c>
     </row>
@@ -3348,7 +4436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3920,15 +5008,32 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Q86673417</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mezdatta</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Q3957_малый город</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>Q90881611</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>castle town</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Q3957_малый город</t>
         </is>
